--- a/documents/外部設計/機能一覧_D2.xlsx
+++ b/documents/外部設計/機能一覧_D2.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9A7685-93BA-4568-9319-00C5F01BFA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{6FA9EC44-F8F4-43E0-A599-7A8BC34B821E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="1890" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="96">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -146,33 +147,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>トップページの商品一覧</t>
-  </si>
-  <si>
-    <t>買い物カゴの中身を表示する</t>
-  </si>
-  <si>
-    <t>商品の詳細を表示し、個数を指定して買い物カゴに追加することが可能</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>送付先を入力することが可能</t>
-  </si>
-  <si>
-    <t>買い物カゴに入った商品を注文する</t>
-  </si>
-  <si>
-    <t>ユーザ登録しているユーザがログインできる</t>
-  </si>
-  <si>
-    <t>ユーザ登録後にメールを送信し、記載されたURLをクリックすることで登録する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ登録完了後、一番古い注文データを利用して購入完了のメールを送信する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -213,16 +187,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録情報のうちタイトルを記入する</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>登録内容記入</t>
     <rPh sb="0" eb="2">
       <t>トウロク</t>
@@ -342,9 +306,6 @@
     <t>WA002</t>
   </si>
   <si>
-    <t>WA003</t>
-  </si>
-  <si>
     <t>WA004</t>
   </si>
   <si>
@@ -381,33 +342,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>検索機能</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>条件抽出</t>
-    <rPh sb="0" eb="4">
-      <t>ジョウケンチュウシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>並び替え</t>
-    <rPh sb="0" eb="1">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>登録日　昇順/降順</t>
     <rPh sb="0" eb="3">
       <t>トウロクビ</t>
@@ -470,13 +404,567 @@
       <t>シツモンサクジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問内容を記入する</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問内容をDBに送信する</t>
+    <rPh sb="0" eb="4">
+      <t>シツモンナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答内容を記入する</t>
+    <rPh sb="0" eb="4">
+      <t>カイトウナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問に関連するファイルを任意で添付できる（ファイルは１つまで）</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テンプ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答に関連するファイルを任意で添付できる（ファイルは一つまで）</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答内容をDBに送信する</t>
+    <rPh sb="0" eb="4">
+      <t>カイトウナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WA003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録されている回答を削除する。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答更新機能</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答削除機能</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問内容表示画面/履歴画面で回答の「更新」ボタンを押すと回答更新画面に遷移
+回答更新画面にて既存の回答を削除し、新たに回答を登録し直す</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問内容表示画面/履歴画面で質問の「更新」ボタンを押すと質問更新画面に遷移
+質問更新画面にて既存の回答を削除し、新たに回答を登録し直す</t>
+    <rPh sb="0" eb="4">
+      <t>シツモンナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>リレキガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>コウシンガメン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問の更新内容をデータべーつに送信する</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問内容表示画面/履歴画面で質問の完了/未完了ステータスをプルダウンメニューで登録できる</t>
+    <rPh sb="14" eb="16">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ミカンリョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリーをクリックすると検索フォームにそのカテゴリー名が入力される
+カテゴリーはOR検索で複数選択可</t>
+    <rPh sb="13" eb="15">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>キーワードで検索ができる
+複数キーワードがある場合AND検索を行う</t>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>カテゴリー検索とキーワード選択を同時に行う(keyword1 and keyword2 … )　AND　(category1 or category2 …)</t>
+    <rPh sb="0" eb="78">
+      <t>ケンサクセンタクドウジオコナ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>完了/未完了を選択し検索ができる</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ミカンリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>登録日の昇順/降順でソートができる</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウジュン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>アクセス数が多い順にソートできる</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>WSD001</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>質問内容表示画面/履歴画面で質問の削除ができる</t>
+    <rPh sb="14" eb="16">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>質問登録画面</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>質問回答機能</t>
+    <rPh sb="2" eb="4">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>質問内容表示画面</t>
+    <rPh sb="0" eb="8">
+      <t>シツモンナイヨウヒョウジガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>質問内容表示画面
+/履歴画面</t>
+    <rPh sb="0" eb="8">
+      <t>シツモンナイヨウヒョウジガメン</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>リレキガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>質問更新画面</t>
+    <rPh sb="0" eb="4">
+      <t>シツモンコウシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>回答更新画面</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>検索画面</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴一覧機能</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>履歴画面</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>質問/履歴一覧を完了/未完了ステータスを条件に抽出し一覧表示できる</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ミカンリョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>質問/回答履歴を一覧表示</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問/履歴一覧を登録日が最新のものから降順で並べる</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナラ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>WSH001</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>WSH002</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,6 +1000,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -598,7 +1092,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -623,18 +1117,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -654,6 +1136,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -996,15 +1493,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.25" customWidth="1"/>
     <col min="2" max="2" width="6.75" customWidth="1"/>
-    <col min="3" max="5" width="12.625" customWidth="1"/>
+    <col min="3" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
     <col min="8" max="8" width="33.875" style="1" customWidth="1"/>
@@ -1015,44 +1513,44 @@
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="9"/>
+      <c r="H2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="18">
         <v>43983</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
@@ -1092,69 +1590,75 @@
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="2"/>
+      <c r="D8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="2"/>
+      <c r="D9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2"/>
+      <c r="D10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
@@ -1164,45 +1668,49 @@
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="2"/>
+      <c r="D11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="2"/>
+      <c r="D12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -1212,45 +1720,49 @@
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="12" t="s">
-        <v>38</v>
+      <c r="D13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="15" t="s">
-        <v>39</v>
+      <c r="D14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="27" x14ac:dyDescent="0.15">
@@ -1260,172 +1772,206 @@
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="15" t="s">
-        <v>40</v>
+      <c r="D15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="14" t="s">
+      <c r="D16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="H16" s="3" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
         <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="17" t="s">
-        <v>35</v>
+      <c r="D17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="17" t="s">
-        <v>43</v>
+      <c r="D18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="17" t="s">
-        <v>44</v>
+      <c r="D19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>45</v>
+      <c r="D20" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>56</v>
+        <v>88</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
         <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>45</v>
+      <c r="D21" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>57</v>
+        <v>88</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B22" s="2">
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>45</v>
+      <c r="D22" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>58</v>
+        <v>88</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="2">
@@ -1434,20 +1980,24 @@
       <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>45</v>
+      <c r="D23" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>63</v>
+        <v>88</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
@@ -1456,20 +2006,24 @@
       <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>45</v>
+      <c r="D24" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>62</v>
+        <v>88</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
@@ -1478,54 +2032,78 @@
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>45</v>
+      <c r="D25" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>64</v>
+        <v>88</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
         <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="2"/>
+      <c r="D26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="F26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B27" s="2">
         <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B28" s="2">
         <v>21</v>
       </c>
@@ -1533,11 +2111,21 @@
         <v>15</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B29" s="2">
@@ -1652,7 +2240,7 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/documents/外部設計/機能一覧_D2.xlsx
+++ b/documents/外部設計/機能一覧_D2.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{6FA9EC44-F8F4-43E0-A599-7A8BC34B821E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59943BDE-5FF7-4CED-A3D7-1F0AF448BDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4050" yWindow="-120" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="110">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -243,9 +242,6 @@
     <t>回答内容送信</t>
   </si>
   <si>
-    <t>回答内容更新</t>
-  </si>
-  <si>
     <t>回答内容削除</t>
   </si>
   <si>
@@ -481,10 +477,6 @@
     <rPh sb="8" eb="10">
       <t>ソウシン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WA003</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -714,13 +706,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>カテゴリー検索とキーワード選択を同時に行う(keyword1 and keyword2 … )　AND　(category1 or category2 …)</t>
-    <rPh sb="0" eb="78">
-      <t>ケンサクセンタクドウジオコナ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>完了/未完了を選択し検索ができる</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
@@ -957,6 +942,111 @@
   </si>
   <si>
     <t>WSH002</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>カテゴリー検索とキーワード検索を同時に行う(keyword1 and keyword2 … )　AND　(category1 or category2 …)</t>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>回答内容更新</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Java/JS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新内容送信</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新内容をDBに送信する</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WA003</t>
+  </si>
+  <si>
+    <t>WA005</t>
+  </si>
+  <si>
+    <t>WA006</t>
+  </si>
+  <si>
+    <t>ログイン/ログアウト</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>WSL001</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>WSL002</t>
+  </si>
+  <si>
+    <t>ユーザ登録しているユーザがメールアドレスとパスワードでログインできる。</t>
+  </si>
+  <si>
+    <t>ヘッダー全画面</t>
+    <rPh sb="4" eb="7">
+      <t>ゼンガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ヘッダーのログアウトをクリックするとログアウトし、ログイン画面に遷移する</t>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>センイ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -964,7 +1054,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1006,6 +1096,12 @@
     <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1092,7 +1188,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1152,6 +1248,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1491,21 +1590,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I36"/>
+  <dimension ref="B2:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.25" customWidth="1"/>
     <col min="2" max="2" width="6.75" customWidth="1"/>
-    <col min="3" max="4" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
     <col min="5" max="5" width="16.625" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="33.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
@@ -1594,7 +1692,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>24</v>
@@ -1603,7 +1701,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>16</v>
@@ -1620,7 +1718,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>26</v>
@@ -1629,10 +1727,10 @@
         <v>22</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
@@ -1646,16 +1744,16 @@
         <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>16</v>
@@ -1669,19 +1767,19 @@
         <v>15</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>16</v>
@@ -1698,19 +1796,19 @@
         <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -1724,22 +1822,22 @@
         <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9" ht="54" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
         <v>7</v>
       </c>
@@ -1747,71 +1845,63 @@
         <v>15</v>
       </c>
       <c r="D14" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B15" s="2">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>31</v>
+        <v>66</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="2">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>33</v>
+        <v>66</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>16</v>
@@ -1819,207 +1909,207 @@
     </row>
     <row r="17" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>26</v>
+        <v>67</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>34</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>85</v>
+        <v>31</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>36</v>
+      <c r="D20" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>46</v>
+        <v>83</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>47</v>
+      <c r="D21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B22" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>48</v>
+        <v>85</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B23" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>50</v>
+        <v>85</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>16</v>
@@ -2027,169 +2117,213 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>51</v>
+        <v>85</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="15" t="s">
+      <c r="D26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>59</v>
+      <c r="F26" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>89</v>
+      <c r="D27" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B28" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>50</v>
+      <c r="D28" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="G28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B29" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B30" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B31" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B32" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" s="2">
-        <v>26</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -2199,7 +2333,7 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B34" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2211,7 +2345,7 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2223,7 +2357,7 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2232,6 +2366,30 @@
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
       <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B37" s="2">
+        <v>28</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B38" s="2">
+        <v>29</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
